--- a/controller/src/main/resources/jxls_templates/otherfour.xlsx
+++ b/controller/src/main/resources/jxls_templates/otherfour.xlsx
@@ -53,15 +53,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>工号</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>姓名</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>合計</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>卡号</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -222,12 +222,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -235,6 +229,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準 2" xfId="1"/>
@@ -546,7 +546,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="9.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
@@ -558,11 +558,11 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -579,7 +579,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5"/>
-      <c r="C2" s="13"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="5"/>
       <c r="E2" s="9"/>
       <c r="F2" s="6">
@@ -593,7 +593,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="13"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="5"/>
       <c r="E3" s="9"/>
       <c r="F3" s="6">
@@ -607,7 +607,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="13"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="5"/>
       <c r="E4" s="9"/>
       <c r="F4" s="6">
@@ -621,7 +621,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="13"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="5"/>
       <c r="E5" s="9"/>
       <c r="F5" s="6">
@@ -635,7 +635,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="13"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="5"/>
       <c r="E6" s="9"/>
       <c r="F6" s="6">
@@ -649,7 +649,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="13"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="5"/>
       <c r="E7" s="9"/>
       <c r="F7" s="6">
@@ -663,7 +663,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="13"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="5"/>
       <c r="E8" s="9"/>
       <c r="F8" s="6">
@@ -677,7 +677,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="13"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="5"/>
       <c r="E9" s="9"/>
       <c r="F9" s="6">
@@ -691,7 +691,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="13"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="5"/>
       <c r="E10" s="9"/>
       <c r="F10" s="6">
@@ -705,7 +705,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="13"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="5"/>
       <c r="E11" s="9"/>
       <c r="F11" s="6">
@@ -719,7 +719,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="13"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="5"/>
       <c r="E12" s="9"/>
       <c r="F12" s="6">
@@ -733,7 +733,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="13"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="5"/>
       <c r="E13" s="9"/>
       <c r="F13" s="6">
@@ -747,7 +747,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="13"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="5"/>
       <c r="E14" s="9"/>
       <c r="F14" s="6">
@@ -761,7 +761,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="13"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="5"/>
       <c r="E15" s="9"/>
       <c r="F15" s="6">
@@ -775,7 +775,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="13"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="5"/>
       <c r="E16" s="9"/>
       <c r="F16" s="6">
@@ -789,7 +789,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5"/>
-      <c r="C17" s="13"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="5"/>
       <c r="E17" s="9"/>
       <c r="F17" s="6">
@@ -803,7 +803,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5"/>
-      <c r="C18" s="13"/>
+      <c r="C18" s="11"/>
       <c r="D18" s="5"/>
       <c r="E18" s="9"/>
       <c r="F18" s="6">
@@ -817,7 +817,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5"/>
-      <c r="C19" s="13"/>
+      <c r="C19" s="11"/>
       <c r="D19" s="5"/>
       <c r="E19" s="9"/>
       <c r="F19" s="6">
@@ -831,7 +831,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5"/>
-      <c r="C20" s="13"/>
+      <c r="C20" s="11"/>
       <c r="D20" s="5"/>
       <c r="E20" s="9"/>
       <c r="F20" s="6">
@@ -845,7 +845,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5"/>
-      <c r="C21" s="13"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="5"/>
       <c r="E21" s="9"/>
       <c r="F21" s="6">
@@ -859,7 +859,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5"/>
-      <c r="C22" s="13"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="5"/>
       <c r="E22" s="9"/>
       <c r="F22" s="6">
@@ -873,7 +873,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="C23" s="13"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="5"/>
       <c r="E23" s="9"/>
       <c r="F23" s="6">
@@ -887,7 +887,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5"/>
-      <c r="C24" s="13"/>
+      <c r="C24" s="11"/>
       <c r="D24" s="5"/>
       <c r="E24" s="9"/>
       <c r="F24" s="6">
@@ -901,7 +901,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5"/>
-      <c r="C25" s="13"/>
+      <c r="C25" s="11"/>
       <c r="D25" s="5"/>
       <c r="E25" s="9"/>
       <c r="F25" s="6">
@@ -915,7 +915,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5"/>
-      <c r="C26" s="13"/>
+      <c r="C26" s="11"/>
       <c r="D26" s="5"/>
       <c r="E26" s="9"/>
       <c r="F26" s="6">
@@ -929,7 +929,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="C27" s="13"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="5"/>
       <c r="E27" s="9"/>
       <c r="F27" s="6">
@@ -943,7 +943,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5"/>
-      <c r="C28" s="13"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="5"/>
       <c r="E28" s="9"/>
       <c r="F28" s="6">
@@ -957,7 +957,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="C29" s="13"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="5"/>
       <c r="E29" s="9"/>
       <c r="F29" s="6">
@@ -971,7 +971,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5"/>
-      <c r="C30" s="13"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="5"/>
       <c r="E30" s="9"/>
       <c r="F30" s="6">
@@ -985,7 +985,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5"/>
-      <c r="C31" s="13"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="5"/>
       <c r="E31" s="9"/>
       <c r="F31" s="6">
@@ -999,7 +999,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5"/>
-      <c r="C32" s="13"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="5"/>
       <c r="E32" s="9"/>
       <c r="F32" s="6">
@@ -1013,7 +1013,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5"/>
-      <c r="C33" s="13"/>
+      <c r="C33" s="11"/>
       <c r="D33" s="5"/>
       <c r="E33" s="9"/>
       <c r="F33" s="6">
@@ -1027,7 +1027,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5"/>
-      <c r="C34" s="13"/>
+      <c r="C34" s="11"/>
       <c r="D34" s="5"/>
       <c r="E34" s="9"/>
       <c r="F34" s="6">
@@ -1041,7 +1041,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5"/>
-      <c r="C35" s="13"/>
+      <c r="C35" s="11"/>
       <c r="D35" s="5"/>
       <c r="E35" s="9"/>
       <c r="F35" s="6">
@@ -1055,7 +1055,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5"/>
-      <c r="C36" s="13"/>
+      <c r="C36" s="11"/>
       <c r="D36" s="5"/>
       <c r="E36" s="9"/>
       <c r="F36" s="6">
@@ -1069,7 +1069,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5"/>
-      <c r="C37" s="13"/>
+      <c r="C37" s="11"/>
       <c r="D37" s="5"/>
       <c r="E37" s="9"/>
       <c r="F37" s="6">
@@ -1083,7 +1083,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5"/>
-      <c r="C38" s="13"/>
+      <c r="C38" s="11"/>
       <c r="D38" s="5"/>
       <c r="E38" s="9"/>
       <c r="F38" s="6">
@@ -1097,7 +1097,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5"/>
-      <c r="C39" s="13"/>
+      <c r="C39" s="11"/>
       <c r="D39" s="5"/>
       <c r="E39" s="9"/>
       <c r="F39" s="6">
@@ -1111,7 +1111,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5"/>
-      <c r="C40" s="13"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="5"/>
       <c r="E40" s="9"/>
       <c r="F40" s="6">
@@ -1125,7 +1125,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5"/>
-      <c r="C41" s="13"/>
+      <c r="C41" s="11"/>
       <c r="D41" s="5"/>
       <c r="E41" s="9"/>
       <c r="F41" s="6">
@@ -1139,7 +1139,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5"/>
-      <c r="C42" s="13"/>
+      <c r="C42" s="11"/>
       <c r="D42" s="5"/>
       <c r="E42" s="9"/>
       <c r="F42" s="6">
@@ -1153,7 +1153,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5"/>
-      <c r="C43" s="13"/>
+      <c r="C43" s="11"/>
       <c r="D43" s="5"/>
       <c r="E43" s="9"/>
       <c r="F43" s="6">
@@ -1167,7 +1167,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5"/>
-      <c r="C44" s="13"/>
+      <c r="C44" s="11"/>
       <c r="D44" s="5"/>
       <c r="E44" s="9"/>
       <c r="F44" s="6">
@@ -1181,7 +1181,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5"/>
-      <c r="C45" s="13"/>
+      <c r="C45" s="11"/>
       <c r="D45" s="5"/>
       <c r="E45" s="9"/>
       <c r="F45" s="6">
@@ -1195,7 +1195,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5"/>
-      <c r="C46" s="13"/>
+      <c r="C46" s="11"/>
       <c r="D46" s="5"/>
       <c r="E46" s="9"/>
       <c r="F46" s="6">
@@ -1209,7 +1209,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5"/>
-      <c r="C47" s="13"/>
+      <c r="C47" s="11"/>
       <c r="D47" s="5"/>
       <c r="E47" s="9"/>
       <c r="F47" s="6">
@@ -1223,7 +1223,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5"/>
-      <c r="C48" s="13"/>
+      <c r="C48" s="11"/>
       <c r="D48" s="5"/>
       <c r="E48" s="9"/>
       <c r="F48" s="6">
@@ -1237,7 +1237,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5"/>
-      <c r="C49" s="13"/>
+      <c r="C49" s="11"/>
       <c r="D49" s="5"/>
       <c r="E49" s="9"/>
       <c r="F49" s="6">
@@ -1251,7 +1251,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="5"/>
-      <c r="C50" s="13"/>
+      <c r="C50" s="11"/>
       <c r="D50" s="5"/>
       <c r="E50" s="9"/>
       <c r="F50" s="6">
@@ -1265,7 +1265,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="5"/>
-      <c r="C51" s="13"/>
+      <c r="C51" s="11"/>
       <c r="D51" s="5"/>
       <c r="E51" s="9"/>
       <c r="F51" s="6">
@@ -1279,7 +1279,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="5"/>
-      <c r="C52" s="13"/>
+      <c r="C52" s="11"/>
       <c r="D52" s="5"/>
       <c r="E52" s="9"/>
       <c r="F52" s="6">
@@ -1293,7 +1293,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="5"/>
-      <c r="C53" s="13"/>
+      <c r="C53" s="11"/>
       <c r="D53" s="5"/>
       <c r="E53" s="9"/>
       <c r="F53" s="6">
@@ -1307,7 +1307,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5"/>
-      <c r="C54" s="13"/>
+      <c r="C54" s="11"/>
       <c r="D54" s="5"/>
       <c r="E54" s="9"/>
       <c r="F54" s="6">
@@ -1321,7 +1321,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="5"/>
-      <c r="C55" s="13"/>
+      <c r="C55" s="11"/>
       <c r="D55" s="5"/>
       <c r="E55" s="9"/>
       <c r="F55" s="6">
@@ -1335,7 +1335,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="5"/>
-      <c r="C56" s="13"/>
+      <c r="C56" s="11"/>
       <c r="D56" s="5"/>
       <c r="E56" s="9"/>
       <c r="F56" s="6">
@@ -1349,7 +1349,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="5"/>
-      <c r="C57" s="13"/>
+      <c r="C57" s="11"/>
       <c r="D57" s="5"/>
       <c r="E57" s="9"/>
       <c r="F57" s="6">
@@ -1363,7 +1363,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5"/>
-      <c r="C58" s="13"/>
+      <c r="C58" s="11"/>
       <c r="D58" s="5"/>
       <c r="E58" s="9"/>
       <c r="F58" s="6">
@@ -1377,7 +1377,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5"/>
-      <c r="C59" s="13"/>
+      <c r="C59" s="11"/>
       <c r="D59" s="5"/>
       <c r="E59" s="9"/>
       <c r="F59" s="6">
@@ -1391,7 +1391,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="5"/>
-      <c r="C60" s="13"/>
+      <c r="C60" s="11"/>
       <c r="D60" s="5"/>
       <c r="E60" s="9"/>
       <c r="F60" s="6">
@@ -1405,7 +1405,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="5"/>
-      <c r="C61" s="13"/>
+      <c r="C61" s="11"/>
       <c r="D61" s="5"/>
       <c r="E61" s="9"/>
       <c r="F61" s="6">
@@ -1419,7 +1419,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="5"/>
-      <c r="C62" s="13"/>
+      <c r="C62" s="11"/>
       <c r="D62" s="5"/>
       <c r="E62" s="9"/>
       <c r="F62" s="6">
@@ -1433,7 +1433,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="5"/>
-      <c r="C63" s="13"/>
+      <c r="C63" s="11"/>
       <c r="D63" s="5"/>
       <c r="E63" s="9"/>
       <c r="F63" s="6">
@@ -1447,7 +1447,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="5"/>
-      <c r="C64" s="13"/>
+      <c r="C64" s="11"/>
       <c r="D64" s="5"/>
       <c r="E64" s="9"/>
       <c r="F64" s="6">
@@ -1461,7 +1461,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="5"/>
-      <c r="C65" s="13"/>
+      <c r="C65" s="11"/>
       <c r="D65" s="5"/>
       <c r="E65" s="9"/>
       <c r="F65" s="6">
@@ -1475,7 +1475,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="5"/>
-      <c r="C66" s="13"/>
+      <c r="C66" s="11"/>
       <c r="D66" s="5"/>
       <c r="E66" s="9"/>
       <c r="F66" s="6">
@@ -1489,7 +1489,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="5"/>
-      <c r="C67" s="13"/>
+      <c r="C67" s="11"/>
       <c r="D67" s="5"/>
       <c r="E67" s="9"/>
       <c r="F67" s="6">
@@ -1503,7 +1503,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="5"/>
-      <c r="C68" s="13"/>
+      <c r="C68" s="11"/>
       <c r="D68" s="5"/>
       <c r="E68" s="9"/>
       <c r="F68" s="6">
@@ -1517,7 +1517,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="5"/>
-      <c r="C69" s="13"/>
+      <c r="C69" s="11"/>
       <c r="D69" s="5"/>
       <c r="E69" s="9"/>
       <c r="F69" s="6">
@@ -1531,7 +1531,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="5"/>
-      <c r="C70" s="13"/>
+      <c r="C70" s="11"/>
       <c r="D70" s="5"/>
       <c r="E70" s="9"/>
       <c r="F70" s="6">
@@ -1545,7 +1545,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="5"/>
-      <c r="C71" s="13"/>
+      <c r="C71" s="11"/>
       <c r="D71" s="5"/>
       <c r="E71" s="9"/>
       <c r="F71" s="6">
@@ -1559,7 +1559,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="5"/>
-      <c r="C72" s="13"/>
+      <c r="C72" s="11"/>
       <c r="D72" s="5"/>
       <c r="E72" s="9"/>
       <c r="F72" s="6">
@@ -1573,7 +1573,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="5"/>
-      <c r="C73" s="13"/>
+      <c r="C73" s="11"/>
       <c r="D73" s="5"/>
       <c r="E73" s="9"/>
       <c r="F73" s="6">
@@ -1587,7 +1587,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="5"/>
-      <c r="C74" s="13"/>
+      <c r="C74" s="11"/>
       <c r="D74" s="5"/>
       <c r="E74" s="9"/>
       <c r="F74" s="6">
@@ -1601,7 +1601,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="5"/>
-      <c r="C75" s="13"/>
+      <c r="C75" s="11"/>
       <c r="D75" s="5"/>
       <c r="E75" s="9"/>
       <c r="F75" s="6">
@@ -1615,7 +1615,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="5"/>
-      <c r="C76" s="13"/>
+      <c r="C76" s="11"/>
       <c r="D76" s="5"/>
       <c r="E76" s="9"/>
       <c r="F76" s="6">
@@ -1629,7 +1629,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="5"/>
-      <c r="C77" s="13"/>
+      <c r="C77" s="11"/>
       <c r="D77" s="5"/>
       <c r="E77" s="9"/>
       <c r="F77" s="6">
@@ -1643,7 +1643,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="5"/>
-      <c r="C78" s="13"/>
+      <c r="C78" s="11"/>
       <c r="D78" s="5"/>
       <c r="E78" s="9"/>
       <c r="F78" s="6">
@@ -1657,7 +1657,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="5"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="11"/>
       <c r="D79" s="5"/>
       <c r="E79" s="9"/>
       <c r="F79" s="6">
@@ -1671,7 +1671,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="5"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="11"/>
       <c r="D80" s="5"/>
       <c r="E80" s="9"/>
       <c r="F80" s="6">
@@ -1685,7 +1685,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="5"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="11"/>
       <c r="D81" s="5"/>
       <c r="E81" s="9"/>
       <c r="F81" s="6">
@@ -1699,7 +1699,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="5"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="11"/>
       <c r="D82" s="5"/>
       <c r="E82" s="9"/>
       <c r="F82" s="6">
@@ -1713,7 +1713,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="5"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="11"/>
       <c r="D83" s="5"/>
       <c r="E83" s="9"/>
       <c r="F83" s="6">
@@ -1727,7 +1727,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="5"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="11"/>
       <c r="D84" s="5"/>
       <c r="E84" s="9"/>
       <c r="F84" s="6">
@@ -1741,7 +1741,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="5"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="11"/>
       <c r="D85" s="5"/>
       <c r="E85" s="9"/>
       <c r="F85" s="6">
@@ -1755,7 +1755,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="5"/>
-      <c r="C86" s="13"/>
+      <c r="C86" s="11"/>
       <c r="D86" s="5"/>
       <c r="E86" s="9"/>
       <c r="F86" s="6">
@@ -1769,7 +1769,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="5"/>
-      <c r="C87" s="13"/>
+      <c r="C87" s="11"/>
       <c r="D87" s="5"/>
       <c r="E87" s="9"/>
       <c r="F87" s="6">
@@ -1783,7 +1783,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="5"/>
-      <c r="C88" s="13"/>
+      <c r="C88" s="11"/>
       <c r="D88" s="5"/>
       <c r="E88" s="9"/>
       <c r="F88" s="6">
@@ -1797,7 +1797,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="5"/>
-      <c r="C89" s="13"/>
+      <c r="C89" s="11"/>
       <c r="D89" s="5"/>
       <c r="E89" s="9"/>
       <c r="F89" s="6">
@@ -1811,7 +1811,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="5"/>
-      <c r="C90" s="13"/>
+      <c r="C90" s="11"/>
       <c r="D90" s="5"/>
       <c r="E90" s="9"/>
       <c r="F90" s="6">
@@ -1825,7 +1825,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="5"/>
-      <c r="C91" s="13"/>
+      <c r="C91" s="11"/>
       <c r="D91" s="5"/>
       <c r="E91" s="9"/>
       <c r="F91" s="6">
@@ -1839,7 +1839,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="5"/>
-      <c r="C92" s="13"/>
+      <c r="C92" s="11"/>
       <c r="D92" s="5"/>
       <c r="E92" s="9"/>
       <c r="F92" s="6">
@@ -1853,7 +1853,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="5"/>
-      <c r="C93" s="13"/>
+      <c r="C93" s="11"/>
       <c r="D93" s="5"/>
       <c r="E93" s="9"/>
       <c r="F93" s="6">
@@ -1867,7 +1867,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="5"/>
-      <c r="C94" s="13"/>
+      <c r="C94" s="11"/>
       <c r="D94" s="5"/>
       <c r="E94" s="9"/>
       <c r="F94" s="6">
@@ -1881,7 +1881,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="5"/>
-      <c r="C95" s="13"/>
+      <c r="C95" s="11"/>
       <c r="D95" s="5"/>
       <c r="E95" s="9"/>
       <c r="F95" s="6">
@@ -1895,7 +1895,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="5"/>
-      <c r="C96" s="13"/>
+      <c r="C96" s="11"/>
       <c r="D96" s="5"/>
       <c r="E96" s="9"/>
       <c r="F96" s="6">
@@ -1909,7 +1909,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="5"/>
-      <c r="C97" s="13"/>
+      <c r="C97" s="11"/>
       <c r="D97" s="5"/>
       <c r="E97" s="9"/>
       <c r="F97" s="6">
@@ -1923,7 +1923,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="5"/>
-      <c r="C98" s="13"/>
+      <c r="C98" s="11"/>
       <c r="D98" s="5"/>
       <c r="E98" s="9"/>
       <c r="F98" s="6">
@@ -1937,7 +1937,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="5"/>
-      <c r="C99" s="13"/>
+      <c r="C99" s="11"/>
       <c r="D99" s="5"/>
       <c r="E99" s="9"/>
       <c r="F99" s="6">
@@ -1951,7 +1951,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="5"/>
-      <c r="C100" s="13"/>
+      <c r="C100" s="11"/>
       <c r="D100" s="5"/>
       <c r="E100" s="9"/>
       <c r="F100" s="6">
@@ -1965,7 +1965,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="5"/>
-      <c r="C101" s="13"/>
+      <c r="C101" s="11"/>
       <c r="D101" s="5"/>
       <c r="E101" s="9"/>
       <c r="F101" s="6">
@@ -1979,7 +1979,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="5"/>
-      <c r="C102" s="13"/>
+      <c r="C102" s="11"/>
       <c r="D102" s="5"/>
       <c r="E102" s="9"/>
       <c r="F102" s="6">
@@ -1993,7 +1993,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="5"/>
-      <c r="C103" s="13"/>
+      <c r="C103" s="11"/>
       <c r="D103" s="5"/>
       <c r="E103" s="9"/>
       <c r="F103" s="6">
@@ -2007,7 +2007,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="5"/>
-      <c r="C104" s="13"/>
+      <c r="C104" s="11"/>
       <c r="D104" s="5"/>
       <c r="E104" s="9"/>
       <c r="F104" s="6">
@@ -2021,7 +2021,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="5"/>
-      <c r="C105" s="13"/>
+      <c r="C105" s="11"/>
       <c r="D105" s="5"/>
       <c r="E105" s="9"/>
       <c r="F105" s="6">
@@ -2035,7 +2035,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="5"/>
-      <c r="C106" s="13"/>
+      <c r="C106" s="11"/>
       <c r="D106" s="5"/>
       <c r="E106" s="9"/>
       <c r="F106" s="6">
@@ -2049,7 +2049,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="5"/>
-      <c r="C107" s="13"/>
+      <c r="C107" s="11"/>
       <c r="D107" s="5"/>
       <c r="E107" s="9"/>
       <c r="F107" s="6">
@@ -2063,7 +2063,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="5"/>
-      <c r="C108" s="13"/>
+      <c r="C108" s="11"/>
       <c r="D108" s="5"/>
       <c r="E108" s="9"/>
       <c r="F108" s="6">
@@ -2077,7 +2077,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="5"/>
-      <c r="C109" s="13"/>
+      <c r="C109" s="11"/>
       <c r="D109" s="5"/>
       <c r="E109" s="9"/>
       <c r="F109" s="6">
@@ -2091,7 +2091,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="5"/>
-      <c r="C110" s="13"/>
+      <c r="C110" s="11"/>
       <c r="D110" s="5"/>
       <c r="E110" s="9"/>
       <c r="F110" s="6">
@@ -2105,7 +2105,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="5"/>
-      <c r="C111" s="13"/>
+      <c r="C111" s="11"/>
       <c r="D111" s="5"/>
       <c r="E111" s="9"/>
       <c r="F111" s="6">
@@ -2119,7 +2119,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="5"/>
-      <c r="C112" s="13"/>
+      <c r="C112" s="11"/>
       <c r="D112" s="5"/>
       <c r="E112" s="9"/>
       <c r="F112" s="6">
@@ -2133,7 +2133,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="5"/>
-      <c r="C113" s="13"/>
+      <c r="C113" s="11"/>
       <c r="D113" s="5"/>
       <c r="E113" s="9"/>
       <c r="F113" s="6">
@@ -2147,7 +2147,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="5"/>
-      <c r="C114" s="13"/>
+      <c r="C114" s="11"/>
       <c r="D114" s="5"/>
       <c r="E114" s="9"/>
       <c r="F114" s="6">
@@ -2161,7 +2161,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="5"/>
-      <c r="C115" s="13"/>
+      <c r="C115" s="11"/>
       <c r="D115" s="5"/>
       <c r="E115" s="9"/>
       <c r="F115" s="6">
@@ -2175,7 +2175,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="5"/>
-      <c r="C116" s="13"/>
+      <c r="C116" s="11"/>
       <c r="D116" s="5"/>
       <c r="E116" s="9"/>
       <c r="F116" s="6">
@@ -2189,7 +2189,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="5"/>
-      <c r="C117" s="13"/>
+      <c r="C117" s="11"/>
       <c r="D117" s="5"/>
       <c r="E117" s="9"/>
       <c r="F117" s="6">
@@ -2203,7 +2203,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="5"/>
-      <c r="C118" s="13"/>
+      <c r="C118" s="11"/>
       <c r="D118" s="5"/>
       <c r="E118" s="9"/>
       <c r="F118" s="6">
@@ -2217,7 +2217,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="5"/>
-      <c r="C119" s="13"/>
+      <c r="C119" s="11"/>
       <c r="D119" s="5"/>
       <c r="E119" s="9"/>
       <c r="F119" s="6">
@@ -2231,7 +2231,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="5"/>
-      <c r="C120" s="13"/>
+      <c r="C120" s="11"/>
       <c r="D120" s="5"/>
       <c r="E120" s="9"/>
       <c r="F120" s="6">
@@ -2245,7 +2245,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="5"/>
-      <c r="C121" s="13"/>
+      <c r="C121" s="11"/>
       <c r="D121" s="5"/>
       <c r="E121" s="9"/>
       <c r="F121" s="6">
@@ -2259,7 +2259,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="5"/>
-      <c r="C122" s="13"/>
+      <c r="C122" s="11"/>
       <c r="D122" s="5"/>
       <c r="E122" s="9"/>
       <c r="F122" s="6">
@@ -2273,7 +2273,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="5"/>
-      <c r="C123" s="13"/>
+      <c r="C123" s="11"/>
       <c r="D123" s="5"/>
       <c r="E123" s="9"/>
       <c r="F123" s="6">
@@ -2287,7 +2287,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="5"/>
-      <c r="C124" s="13"/>
+      <c r="C124" s="11"/>
       <c r="D124" s="5"/>
       <c r="E124" s="9"/>
       <c r="F124" s="6">
@@ -2301,7 +2301,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="5"/>
-      <c r="C125" s="13"/>
+      <c r="C125" s="11"/>
       <c r="D125" s="5"/>
       <c r="E125" s="9"/>
       <c r="F125" s="6">
@@ -2315,7 +2315,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="5"/>
-      <c r="C126" s="13"/>
+      <c r="C126" s="11"/>
       <c r="D126" s="5"/>
       <c r="E126" s="9"/>
       <c r="F126" s="6">
@@ -2329,7 +2329,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="5"/>
-      <c r="C127" s="13"/>
+      <c r="C127" s="11"/>
       <c r="D127" s="5"/>
       <c r="E127" s="9"/>
       <c r="F127" s="6">
@@ -2343,7 +2343,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="5"/>
-      <c r="C128" s="13"/>
+      <c r="C128" s="11"/>
       <c r="D128" s="5"/>
       <c r="E128" s="9"/>
       <c r="F128" s="6">
@@ -2357,7 +2357,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="5"/>
-      <c r="C129" s="13"/>
+      <c r="C129" s="11"/>
       <c r="D129" s="5"/>
       <c r="E129" s="9"/>
       <c r="F129" s="6">
@@ -2371,7 +2371,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="5"/>
-      <c r="C130" s="13"/>
+      <c r="C130" s="11"/>
       <c r="D130" s="5"/>
       <c r="E130" s="9"/>
       <c r="F130" s="6">
@@ -2385,7 +2385,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="5"/>
-      <c r="C131" s="13"/>
+      <c r="C131" s="11"/>
       <c r="D131" s="5"/>
       <c r="E131" s="9"/>
       <c r="F131" s="6">
@@ -2399,7 +2399,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="5"/>
-      <c r="C132" s="13"/>
+      <c r="C132" s="11"/>
       <c r="D132" s="5"/>
       <c r="E132" s="9"/>
       <c r="F132" s="6">
@@ -2413,7 +2413,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="5"/>
-      <c r="C133" s="13"/>
+      <c r="C133" s="11"/>
       <c r="D133" s="5"/>
       <c r="E133" s="9"/>
       <c r="F133" s="6">
@@ -2427,7 +2427,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="5"/>
-      <c r="C134" s="13"/>
+      <c r="C134" s="11"/>
       <c r="D134" s="5"/>
       <c r="E134" s="9"/>
       <c r="F134" s="6">
@@ -2441,7 +2441,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="5"/>
-      <c r="C135" s="13"/>
+      <c r="C135" s="11"/>
       <c r="D135" s="5"/>
       <c r="E135" s="9"/>
       <c r="F135" s="6">
@@ -2455,7 +2455,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="5"/>
-      <c r="C136" s="13"/>
+      <c r="C136" s="11"/>
       <c r="D136" s="5"/>
       <c r="E136" s="9"/>
       <c r="F136" s="6">
@@ -2469,7 +2469,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="5"/>
-      <c r="C137" s="13"/>
+      <c r="C137" s="11"/>
       <c r="D137" s="5"/>
       <c r="E137" s="9"/>
       <c r="F137" s="6">
@@ -2483,7 +2483,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="5"/>
-      <c r="C138" s="13"/>
+      <c r="C138" s="11"/>
       <c r="D138" s="5"/>
       <c r="E138" s="9"/>
       <c r="F138" s="6">
@@ -2497,7 +2497,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="5"/>
-      <c r="C139" s="13"/>
+      <c r="C139" s="11"/>
       <c r="D139" s="5"/>
       <c r="E139" s="9"/>
       <c r="F139" s="6">
@@ -2511,7 +2511,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="5"/>
-      <c r="C140" s="13"/>
+      <c r="C140" s="11"/>
       <c r="D140" s="5"/>
       <c r="E140" s="9"/>
       <c r="F140" s="6">
@@ -2525,7 +2525,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="5"/>
-      <c r="C141" s="13"/>
+      <c r="C141" s="11"/>
       <c r="D141" s="5"/>
       <c r="E141" s="9"/>
       <c r="F141" s="6">
@@ -2539,7 +2539,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="5"/>
-      <c r="C142" s="13"/>
+      <c r="C142" s="11"/>
       <c r="D142" s="5"/>
       <c r="E142" s="9"/>
       <c r="F142" s="6">
@@ -2553,7 +2553,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="5"/>
-      <c r="C143" s="13"/>
+      <c r="C143" s="11"/>
       <c r="D143" s="5"/>
       <c r="E143" s="9"/>
       <c r="F143" s="6">
@@ -2567,7 +2567,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="5"/>
-      <c r="C144" s="13"/>
+      <c r="C144" s="11"/>
       <c r="D144" s="5"/>
       <c r="E144" s="9"/>
       <c r="F144" s="6">
@@ -2581,7 +2581,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="5"/>
-      <c r="C145" s="13"/>
+      <c r="C145" s="11"/>
       <c r="D145" s="5"/>
       <c r="E145" s="9"/>
       <c r="F145" s="6">
@@ -2595,7 +2595,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="5"/>
-      <c r="C146" s="13"/>
+      <c r="C146" s="11"/>
       <c r="D146" s="5"/>
       <c r="E146" s="9"/>
       <c r="F146" s="6">
@@ -2609,7 +2609,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="5"/>
-      <c r="C147" s="13"/>
+      <c r="C147" s="11"/>
       <c r="D147" s="5"/>
       <c r="E147" s="9"/>
       <c r="F147" s="6">
@@ -2623,7 +2623,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="5"/>
-      <c r="C148" s="13"/>
+      <c r="C148" s="11"/>
       <c r="D148" s="5"/>
       <c r="E148" s="9"/>
       <c r="F148" s="6">
@@ -2637,7 +2637,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="5"/>
-      <c r="C149" s="13"/>
+      <c r="C149" s="11"/>
       <c r="D149" s="5"/>
       <c r="E149" s="9"/>
       <c r="F149" s="6">
@@ -2651,7 +2651,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="5"/>
-      <c r="C150" s="13"/>
+      <c r="C150" s="11"/>
       <c r="D150" s="5"/>
       <c r="E150" s="9"/>
       <c r="F150" s="6">
@@ -2665,7 +2665,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="5"/>
-      <c r="C151" s="13"/>
+      <c r="C151" s="11"/>
       <c r="D151" s="5"/>
       <c r="E151" s="9"/>
       <c r="F151" s="6">
@@ -2679,7 +2679,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="5"/>
-      <c r="C152" s="13"/>
+      <c r="C152" s="11"/>
       <c r="D152" s="5"/>
       <c r="E152" s="9"/>
       <c r="F152" s="6">
@@ -2693,7 +2693,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="5"/>
-      <c r="C153" s="13"/>
+      <c r="C153" s="11"/>
       <c r="D153" s="5"/>
       <c r="E153" s="9"/>
       <c r="F153" s="6">
@@ -2707,7 +2707,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="5"/>
-      <c r="C154" s="13"/>
+      <c r="C154" s="11"/>
       <c r="D154" s="5"/>
       <c r="E154" s="9"/>
       <c r="F154" s="6">
@@ -2721,7 +2721,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="5"/>
-      <c r="C155" s="13"/>
+      <c r="C155" s="11"/>
       <c r="D155" s="5"/>
       <c r="E155" s="9"/>
       <c r="F155" s="6">
@@ -2735,7 +2735,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="5"/>
-      <c r="C156" s="13"/>
+      <c r="C156" s="11"/>
       <c r="D156" s="5"/>
       <c r="E156" s="9"/>
       <c r="F156" s="6">
@@ -2749,7 +2749,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="5"/>
-      <c r="C157" s="13"/>
+      <c r="C157" s="11"/>
       <c r="D157" s="5"/>
       <c r="E157" s="9"/>
       <c r="F157" s="6">
@@ -2763,7 +2763,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="5"/>
-      <c r="C158" s="13"/>
+      <c r="C158" s="11"/>
       <c r="D158" s="5"/>
       <c r="E158" s="9"/>
       <c r="F158" s="6">
@@ -2777,7 +2777,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="5"/>
-      <c r="C159" s="13"/>
+      <c r="C159" s="11"/>
       <c r="D159" s="5"/>
       <c r="E159" s="9"/>
       <c r="F159" s="6">
@@ -2791,7 +2791,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="5"/>
-      <c r="C160" s="13"/>
+      <c r="C160" s="11"/>
       <c r="D160" s="5"/>
       <c r="E160" s="9"/>
       <c r="F160" s="6">
@@ -2805,7 +2805,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="5"/>
-      <c r="C161" s="13"/>
+      <c r="C161" s="11"/>
       <c r="D161" s="5"/>
       <c r="E161" s="9"/>
       <c r="F161" s="6">
@@ -2819,7 +2819,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="5"/>
-      <c r="C162" s="13"/>
+      <c r="C162" s="11"/>
       <c r="D162" s="5"/>
       <c r="E162" s="9"/>
       <c r="F162" s="6">
@@ -2833,7 +2833,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="5"/>
-      <c r="C163" s="13"/>
+      <c r="C163" s="11"/>
       <c r="D163" s="5"/>
       <c r="E163" s="9"/>
       <c r="F163" s="6">
@@ -2847,7 +2847,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="5"/>
-      <c r="C164" s="13"/>
+      <c r="C164" s="11"/>
       <c r="D164" s="5"/>
       <c r="E164" s="9"/>
       <c r="F164" s="6">
@@ -2861,7 +2861,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="5"/>
-      <c r="C165" s="13"/>
+      <c r="C165" s="11"/>
       <c r="D165" s="5"/>
       <c r="E165" s="9"/>
       <c r="F165" s="6">
@@ -2875,7 +2875,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="5"/>
-      <c r="C166" s="13"/>
+      <c r="C166" s="11"/>
       <c r="D166" s="5"/>
       <c r="E166" s="9"/>
       <c r="F166" s="6">
@@ -2889,7 +2889,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="5"/>
-      <c r="C167" s="13"/>
+      <c r="C167" s="11"/>
       <c r="D167" s="5"/>
       <c r="E167" s="9"/>
       <c r="F167" s="6">
@@ -2903,7 +2903,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="5"/>
-      <c r="C168" s="13"/>
+      <c r="C168" s="11"/>
       <c r="D168" s="5"/>
       <c r="E168" s="9"/>
       <c r="F168" s="6">
@@ -2917,7 +2917,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="5"/>
-      <c r="C169" s="13"/>
+      <c r="C169" s="11"/>
       <c r="D169" s="5"/>
       <c r="E169" s="9"/>
       <c r="F169" s="6">
@@ -2931,7 +2931,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="5"/>
-      <c r="C170" s="13"/>
+      <c r="C170" s="11"/>
       <c r="D170" s="5"/>
       <c r="E170" s="9"/>
       <c r="F170" s="6">
@@ -2945,7 +2945,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="5"/>
-      <c r="C171" s="13"/>
+      <c r="C171" s="11"/>
       <c r="D171" s="5"/>
       <c r="E171" s="9"/>
       <c r="F171" s="6">
@@ -2959,7 +2959,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="5"/>
-      <c r="C172" s="13"/>
+      <c r="C172" s="11"/>
       <c r="D172" s="5"/>
       <c r="E172" s="9"/>
       <c r="F172" s="6">
@@ -2973,7 +2973,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="5"/>
-      <c r="C173" s="13"/>
+      <c r="C173" s="11"/>
       <c r="D173" s="5"/>
       <c r="E173" s="9"/>
       <c r="F173" s="6">
@@ -2987,7 +2987,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="5"/>
-      <c r="C174" s="13"/>
+      <c r="C174" s="11"/>
       <c r="D174" s="5"/>
       <c r="E174" s="9"/>
       <c r="F174" s="6">
@@ -3001,7 +3001,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="5"/>
-      <c r="C175" s="13"/>
+      <c r="C175" s="11"/>
       <c r="D175" s="5"/>
       <c r="E175" s="9"/>
       <c r="F175" s="6">
@@ -3015,7 +3015,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="5"/>
-      <c r="C176" s="13"/>
+      <c r="C176" s="11"/>
       <c r="D176" s="5"/>
       <c r="E176" s="9"/>
       <c r="F176" s="6">
@@ -3029,7 +3029,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="5"/>
-      <c r="C177" s="13"/>
+      <c r="C177" s="11"/>
       <c r="D177" s="5"/>
       <c r="E177" s="9"/>
       <c r="F177" s="6">
@@ -3043,7 +3043,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="5"/>
-      <c r="C178" s="13"/>
+      <c r="C178" s="11"/>
       <c r="D178" s="5"/>
       <c r="E178" s="9"/>
       <c r="F178" s="6">
@@ -3057,7 +3057,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="5"/>
-      <c r="C179" s="13"/>
+      <c r="C179" s="11"/>
       <c r="D179" s="5"/>
       <c r="E179" s="9"/>
       <c r="F179" s="6">
@@ -3071,7 +3071,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="5"/>
-      <c r="C180" s="13"/>
+      <c r="C180" s="11"/>
       <c r="D180" s="5"/>
       <c r="E180" s="9"/>
       <c r="F180" s="6">
@@ -3085,7 +3085,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="5"/>
-      <c r="C181" s="13"/>
+      <c r="C181" s="11"/>
       <c r="D181" s="5"/>
       <c r="E181" s="9"/>
       <c r="F181" s="6">
@@ -3099,7 +3099,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="5"/>
-      <c r="C182" s="13"/>
+      <c r="C182" s="11"/>
       <c r="D182" s="5"/>
       <c r="E182" s="9"/>
       <c r="F182" s="6">
@@ -3113,7 +3113,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="5"/>
-      <c r="C183" s="13"/>
+      <c r="C183" s="11"/>
       <c r="D183" s="5"/>
       <c r="E183" s="9"/>
       <c r="F183" s="6">
@@ -3127,7 +3127,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="5"/>
-      <c r="C184" s="13"/>
+      <c r="C184" s="11"/>
       <c r="D184" s="5"/>
       <c r="E184" s="9"/>
       <c r="F184" s="6">
@@ -3141,7 +3141,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="5"/>
-      <c r="C185" s="13"/>
+      <c r="C185" s="11"/>
       <c r="D185" s="5"/>
       <c r="E185" s="9"/>
       <c r="F185" s="6">
@@ -3155,7 +3155,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="5"/>
-      <c r="C186" s="13"/>
+      <c r="C186" s="11"/>
       <c r="D186" s="5"/>
       <c r="E186" s="9"/>
       <c r="F186" s="6">
@@ -3169,7 +3169,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="5"/>
-      <c r="C187" s="13"/>
+      <c r="C187" s="11"/>
       <c r="D187" s="5"/>
       <c r="E187" s="9"/>
       <c r="F187" s="6">
@@ -3183,7 +3183,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="5"/>
-      <c r="C188" s="13"/>
+      <c r="C188" s="11"/>
       <c r="D188" s="5"/>
       <c r="E188" s="9"/>
       <c r="F188" s="6">
@@ -3197,7 +3197,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="5"/>
-      <c r="C189" s="13"/>
+      <c r="C189" s="11"/>
       <c r="D189" s="5"/>
       <c r="E189" s="9"/>
       <c r="F189" s="6">
@@ -3211,7 +3211,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="5"/>
-      <c r="C190" s="13"/>
+      <c r="C190" s="11"/>
       <c r="D190" s="5"/>
       <c r="E190" s="9"/>
       <c r="F190" s="6">
@@ -3225,7 +3225,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="5"/>
-      <c r="C191" s="13"/>
+      <c r="C191" s="11"/>
       <c r="D191" s="5"/>
       <c r="E191" s="9"/>
       <c r="F191" s="6">
@@ -3239,7 +3239,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="5"/>
-      <c r="C192" s="13"/>
+      <c r="C192" s="11"/>
       <c r="D192" s="5"/>
       <c r="E192" s="9"/>
       <c r="F192" s="6">
@@ -3253,7 +3253,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="5"/>
-      <c r="C193" s="13"/>
+      <c r="C193" s="11"/>
       <c r="D193" s="5"/>
       <c r="E193" s="9"/>
       <c r="F193" s="6">
@@ -3267,7 +3267,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="5"/>
-      <c r="C194" s="13"/>
+      <c r="C194" s="11"/>
       <c r="D194" s="5"/>
       <c r="E194" s="9"/>
       <c r="F194" s="6">
@@ -3281,7 +3281,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="5"/>
-      <c r="C195" s="13"/>
+      <c r="C195" s="11"/>
       <c r="D195" s="5"/>
       <c r="E195" s="9"/>
       <c r="F195" s="6">
@@ -3295,7 +3295,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="5"/>
-      <c r="C196" s="13"/>
+      <c r="C196" s="11"/>
       <c r="D196" s="5"/>
       <c r="E196" s="9"/>
       <c r="F196" s="6">
@@ -3309,7 +3309,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="5"/>
-      <c r="C197" s="13"/>
+      <c r="C197" s="11"/>
       <c r="D197" s="5"/>
       <c r="E197" s="9"/>
       <c r="F197" s="6">
@@ -3323,7 +3323,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="5"/>
-      <c r="C198" s="13"/>
+      <c r="C198" s="11"/>
       <c r="D198" s="5"/>
       <c r="E198" s="9"/>
       <c r="F198" s="6">
@@ -3337,7 +3337,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="5"/>
-      <c r="C199" s="13"/>
+      <c r="C199" s="11"/>
       <c r="D199" s="5"/>
       <c r="E199" s="9"/>
       <c r="F199" s="6">
@@ -3351,7 +3351,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="5"/>
-      <c r="C200" s="13"/>
+      <c r="C200" s="11"/>
       <c r="D200" s="5"/>
       <c r="E200" s="9"/>
       <c r="F200" s="6">
@@ -3365,7 +3365,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="5"/>
-      <c r="C201" s="13"/>
+      <c r="C201" s="11"/>
       <c r="D201" s="5"/>
       <c r="E201" s="9"/>
       <c r="F201" s="6">
@@ -3379,7 +3379,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="5"/>
-      <c r="C202" s="13"/>
+      <c r="C202" s="11"/>
       <c r="D202" s="5"/>
       <c r="E202" s="9"/>
       <c r="F202" s="6">
@@ -3393,7 +3393,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="5"/>
-      <c r="C203" s="13"/>
+      <c r="C203" s="11"/>
       <c r="D203" s="5"/>
       <c r="E203" s="9"/>
       <c r="F203" s="6">
@@ -3407,7 +3407,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="5"/>
-      <c r="C204" s="13"/>
+      <c r="C204" s="11"/>
       <c r="D204" s="5"/>
       <c r="E204" s="9"/>
       <c r="F204" s="6">
@@ -3421,7 +3421,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="5"/>
-      <c r="C205" s="13"/>
+      <c r="C205" s="11"/>
       <c r="D205" s="5"/>
       <c r="E205" s="9"/>
       <c r="F205" s="6">
@@ -3435,7 +3435,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="5"/>
-      <c r="C206" s="13"/>
+      <c r="C206" s="11"/>
       <c r="D206" s="5"/>
       <c r="E206" s="9"/>
       <c r="F206" s="6">
@@ -3449,7 +3449,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="5"/>
-      <c r="C207" s="13"/>
+      <c r="C207" s="11"/>
       <c r="D207" s="5"/>
       <c r="E207" s="9"/>
       <c r="F207" s="6">
@@ -3463,7 +3463,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="5"/>
-      <c r="C208" s="13"/>
+      <c r="C208" s="11"/>
       <c r="D208" s="5"/>
       <c r="E208" s="9"/>
       <c r="F208" s="6">
@@ -3477,7 +3477,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="5"/>
-      <c r="C209" s="13"/>
+      <c r="C209" s="11"/>
       <c r="D209" s="5"/>
       <c r="E209" s="9"/>
       <c r="F209" s="6">
@@ -3491,7 +3491,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="5"/>
-      <c r="C210" s="13"/>
+      <c r="C210" s="11"/>
       <c r="D210" s="5"/>
       <c r="E210" s="9"/>
       <c r="F210" s="6">
@@ -3505,7 +3505,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="5"/>
-      <c r="C211" s="13"/>
+      <c r="C211" s="11"/>
       <c r="D211" s="5"/>
       <c r="E211" s="9"/>
       <c r="F211" s="6">
@@ -3519,7 +3519,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="5"/>
-      <c r="C212" s="13"/>
+      <c r="C212" s="11"/>
       <c r="D212" s="5"/>
       <c r="E212" s="9"/>
       <c r="F212" s="6">
@@ -3533,7 +3533,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="5"/>
-      <c r="C213" s="13"/>
+      <c r="C213" s="11"/>
       <c r="D213" s="5"/>
       <c r="E213" s="9"/>
       <c r="F213" s="6">
@@ -3547,7 +3547,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="5"/>
-      <c r="C214" s="13"/>
+      <c r="C214" s="11"/>
       <c r="D214" s="5"/>
       <c r="E214" s="9"/>
       <c r="F214" s="6">
@@ -3561,7 +3561,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="5"/>
-      <c r="C215" s="13"/>
+      <c r="C215" s="11"/>
       <c r="D215" s="5"/>
       <c r="E215" s="9"/>
       <c r="F215" s="6">
@@ -3575,7 +3575,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="5"/>
-      <c r="C216" s="13"/>
+      <c r="C216" s="11"/>
       <c r="D216" s="5"/>
       <c r="E216" s="9"/>
       <c r="F216" s="6">
@@ -3589,7 +3589,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="5"/>
-      <c r="C217" s="13"/>
+      <c r="C217" s="11"/>
       <c r="D217" s="5"/>
       <c r="E217" s="9"/>
       <c r="F217" s="6">
@@ -3603,7 +3603,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="5"/>
-      <c r="C218" s="13"/>
+      <c r="C218" s="11"/>
       <c r="D218" s="5"/>
       <c r="E218" s="9"/>
       <c r="F218" s="6">
@@ -3617,7 +3617,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="5"/>
-      <c r="C219" s="13"/>
+      <c r="C219" s="11"/>
       <c r="D219" s="5"/>
       <c r="E219" s="9"/>
       <c r="F219" s="6">
@@ -3631,7 +3631,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="5"/>
-      <c r="C220" s="13"/>
+      <c r="C220" s="11"/>
       <c r="D220" s="5"/>
       <c r="E220" s="9"/>
       <c r="F220" s="6">
@@ -3645,7 +3645,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="5"/>
-      <c r="C221" s="13"/>
+      <c r="C221" s="11"/>
       <c r="D221" s="5"/>
       <c r="E221" s="9"/>
       <c r="F221" s="6">
@@ -3659,7 +3659,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="5"/>
-      <c r="C222" s="13"/>
+      <c r="C222" s="11"/>
       <c r="D222" s="5"/>
       <c r="E222" s="9"/>
       <c r="F222" s="6">
@@ -3673,7 +3673,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="5"/>
-      <c r="C223" s="13"/>
+      <c r="C223" s="11"/>
       <c r="D223" s="5"/>
       <c r="E223" s="9"/>
       <c r="F223" s="6">
@@ -3687,7 +3687,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="5"/>
-      <c r="C224" s="13"/>
+      <c r="C224" s="11"/>
       <c r="D224" s="5"/>
       <c r="E224" s="9"/>
       <c r="F224" s="6">
@@ -3701,7 +3701,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="5"/>
-      <c r="C225" s="13"/>
+      <c r="C225" s="11"/>
       <c r="D225" s="5"/>
       <c r="E225" s="9"/>
       <c r="F225" s="6">
@@ -3715,7 +3715,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="5"/>
-      <c r="C226" s="13"/>
+      <c r="C226" s="11"/>
       <c r="D226" s="5"/>
       <c r="E226" s="9"/>
       <c r="F226" s="6">
@@ -3729,7 +3729,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="5"/>
-      <c r="C227" s="13"/>
+      <c r="C227" s="11"/>
       <c r="D227" s="5"/>
       <c r="E227" s="9"/>
       <c r="F227" s="6">
@@ -3743,7 +3743,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="5"/>
-      <c r="C228" s="13"/>
+      <c r="C228" s="11"/>
       <c r="D228" s="5"/>
       <c r="E228" s="9"/>
       <c r="F228" s="6">
@@ -3757,7 +3757,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="5"/>
-      <c r="C229" s="13"/>
+      <c r="C229" s="11"/>
       <c r="D229" s="5"/>
       <c r="E229" s="9"/>
       <c r="F229" s="6">
@@ -3771,7 +3771,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="5"/>
-      <c r="C230" s="13"/>
+      <c r="C230" s="11"/>
       <c r="D230" s="5"/>
       <c r="E230" s="9"/>
       <c r="F230" s="6">
@@ -3785,7 +3785,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="5"/>
-      <c r="C231" s="13"/>
+      <c r="C231" s="11"/>
       <c r="D231" s="5"/>
       <c r="E231" s="9"/>
       <c r="F231" s="6">
@@ -3799,7 +3799,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="5"/>
-      <c r="C232" s="13"/>
+      <c r="C232" s="11"/>
       <c r="D232" s="5"/>
       <c r="E232" s="9"/>
       <c r="F232" s="6">
@@ -3813,7 +3813,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="5"/>
-      <c r="C233" s="13"/>
+      <c r="C233" s="11"/>
       <c r="D233" s="5"/>
       <c r="E233" s="9"/>
       <c r="F233" s="6">
@@ -3827,7 +3827,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="5"/>
-      <c r="C234" s="13"/>
+      <c r="C234" s="11"/>
       <c r="D234" s="5"/>
       <c r="E234" s="9"/>
       <c r="F234" s="6">
@@ -3841,7 +3841,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="5"/>
-      <c r="C235" s="13"/>
+      <c r="C235" s="11"/>
       <c r="D235" s="5"/>
       <c r="E235" s="9"/>
       <c r="F235" s="6">
@@ -3855,7 +3855,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="5"/>
-      <c r="C236" s="13"/>
+      <c r="C236" s="11"/>
       <c r="D236" s="5"/>
       <c r="E236" s="9"/>
       <c r="F236" s="6">
@@ -3869,7 +3869,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="5"/>
-      <c r="C237" s="13"/>
+      <c r="C237" s="11"/>
       <c r="D237" s="5"/>
       <c r="E237" s="9"/>
       <c r="F237" s="6">
@@ -3883,7 +3883,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="5"/>
-      <c r="C238" s="13"/>
+      <c r="C238" s="11"/>
       <c r="D238" s="5"/>
       <c r="E238" s="9"/>
       <c r="F238" s="6">
@@ -3897,7 +3897,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="5"/>
-      <c r="C239" s="13"/>
+      <c r="C239" s="11"/>
       <c r="D239" s="5"/>
       <c r="E239" s="9"/>
       <c r="F239" s="6">
@@ -3911,7 +3911,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="5"/>
-      <c r="C240" s="13"/>
+      <c r="C240" s="11"/>
       <c r="D240" s="5"/>
       <c r="E240" s="9"/>
       <c r="F240" s="6">
@@ -3925,7 +3925,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="5"/>
-      <c r="C241" s="13"/>
+      <c r="C241" s="11"/>
       <c r="D241" s="5"/>
       <c r="E241" s="9"/>
       <c r="F241" s="6">
@@ -3939,7 +3939,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="5"/>
-      <c r="C242" s="13"/>
+      <c r="C242" s="11"/>
       <c r="D242" s="5"/>
       <c r="E242" s="9"/>
       <c r="F242" s="6">
@@ -3953,7 +3953,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="5"/>
-      <c r="C243" s="13"/>
+      <c r="C243" s="11"/>
       <c r="D243" s="5"/>
       <c r="E243" s="9"/>
       <c r="F243" s="6">
@@ -3967,7 +3967,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="5"/>
-      <c r="C244" s="13"/>
+      <c r="C244" s="11"/>
       <c r="D244" s="5"/>
       <c r="E244" s="9"/>
       <c r="F244" s="6">
@@ -3981,7 +3981,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="5"/>
-      <c r="C245" s="13"/>
+      <c r="C245" s="11"/>
       <c r="D245" s="5"/>
       <c r="E245" s="9"/>
       <c r="F245" s="6">
@@ -3995,7 +3995,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="5"/>
-      <c r="C246" s="13"/>
+      <c r="C246" s="11"/>
       <c r="D246" s="5"/>
       <c r="E246" s="9"/>
       <c r="F246" s="6">
@@ -4009,7 +4009,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="5"/>
-      <c r="C247" s="13"/>
+      <c r="C247" s="11"/>
       <c r="D247" s="5"/>
       <c r="E247" s="9"/>
       <c r="F247" s="6">
@@ -4023,7 +4023,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="5"/>
-      <c r="C248" s="13"/>
+      <c r="C248" s="11"/>
       <c r="D248" s="5"/>
       <c r="E248" s="9"/>
       <c r="F248" s="6">
@@ -4037,7 +4037,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="5"/>
-      <c r="C249" s="13"/>
+      <c r="C249" s="11"/>
       <c r="D249" s="5"/>
       <c r="E249" s="9"/>
       <c r="F249" s="6">
@@ -4051,7 +4051,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="5"/>
-      <c r="C250" s="13"/>
+      <c r="C250" s="11"/>
       <c r="D250" s="5"/>
       <c r="E250" s="9"/>
       <c r="F250" s="6">
@@ -4065,7 +4065,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="5"/>
-      <c r="C251" s="13"/>
+      <c r="C251" s="11"/>
       <c r="D251" s="5"/>
       <c r="E251" s="9"/>
       <c r="F251" s="6">
@@ -4079,7 +4079,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="5"/>
-      <c r="C252" s="13"/>
+      <c r="C252" s="11"/>
       <c r="D252" s="5"/>
       <c r="E252" s="9"/>
       <c r="F252" s="6">
@@ -4093,7 +4093,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="5"/>
-      <c r="C253" s="13"/>
+      <c r="C253" s="11"/>
       <c r="D253" s="5"/>
       <c r="E253" s="9"/>
       <c r="F253" s="6">
@@ -4107,7 +4107,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="5"/>
-      <c r="C254" s="13"/>
+      <c r="C254" s="11"/>
       <c r="D254" s="5"/>
       <c r="E254" s="9"/>
       <c r="F254" s="6">
@@ -4121,7 +4121,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="5"/>
-      <c r="C255" s="13"/>
+      <c r="C255" s="11"/>
       <c r="D255" s="5"/>
       <c r="E255" s="9"/>
       <c r="F255" s="6">
@@ -4135,7 +4135,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="5"/>
-      <c r="C256" s="13"/>
+      <c r="C256" s="11"/>
       <c r="D256" s="5"/>
       <c r="E256" s="9"/>
       <c r="F256" s="6">
@@ -4149,7 +4149,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="5"/>
-      <c r="C257" s="13"/>
+      <c r="C257" s="11"/>
       <c r="D257" s="5"/>
       <c r="E257" s="9"/>
       <c r="F257" s="6">
@@ -4163,7 +4163,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="5"/>
-      <c r="C258" s="13"/>
+      <c r="C258" s="11"/>
       <c r="D258" s="5"/>
       <c r="E258" s="9"/>
       <c r="F258" s="6">
@@ -4177,7 +4177,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="5"/>
-      <c r="C259" s="13"/>
+      <c r="C259" s="11"/>
       <c r="D259" s="5"/>
       <c r="E259" s="9"/>
       <c r="F259" s="6">
@@ -4191,7 +4191,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="5"/>
-      <c r="C260" s="13"/>
+      <c r="C260" s="11"/>
       <c r="D260" s="5"/>
       <c r="E260" s="9"/>
       <c r="F260" s="6">
@@ -4205,7 +4205,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="5"/>
-      <c r="C261" s="13"/>
+      <c r="C261" s="11"/>
       <c r="D261" s="5"/>
       <c r="E261" s="9"/>
       <c r="F261" s="6">
@@ -4219,7 +4219,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="5"/>
-      <c r="C262" s="13"/>
+      <c r="C262" s="11"/>
       <c r="D262" s="5"/>
       <c r="E262" s="9"/>
       <c r="F262" s="6">
@@ -4233,7 +4233,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="5"/>
-      <c r="C263" s="13"/>
+      <c r="C263" s="11"/>
       <c r="D263" s="5"/>
       <c r="E263" s="9"/>
       <c r="F263" s="6">
@@ -4247,7 +4247,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="5"/>
-      <c r="C264" s="13"/>
+      <c r="C264" s="11"/>
       <c r="D264" s="5"/>
       <c r="E264" s="9"/>
       <c r="F264" s="6">
@@ -4261,7 +4261,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="5"/>
-      <c r="C265" s="13"/>
+      <c r="C265" s="11"/>
       <c r="D265" s="5"/>
       <c r="E265" s="9"/>
       <c r="F265" s="6">
@@ -4275,7 +4275,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="5"/>
-      <c r="C266" s="13"/>
+      <c r="C266" s="11"/>
       <c r="D266" s="5"/>
       <c r="E266" s="9"/>
       <c r="F266" s="6">
@@ -4289,7 +4289,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="5"/>
-      <c r="C267" s="13"/>
+      <c r="C267" s="11"/>
       <c r="D267" s="5"/>
       <c r="E267" s="9"/>
       <c r="F267" s="6">
@@ -4303,7 +4303,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="5"/>
-      <c r="C268" s="13"/>
+      <c r="C268" s="11"/>
       <c r="D268" s="5"/>
       <c r="E268" s="9"/>
       <c r="F268" s="6">
@@ -4317,7 +4317,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="5"/>
-      <c r="C269" s="13"/>
+      <c r="C269" s="11"/>
       <c r="D269" s="5"/>
       <c r="E269" s="9"/>
       <c r="F269" s="6">
@@ -4331,7 +4331,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="5"/>
-      <c r="C270" s="13"/>
+      <c r="C270" s="11"/>
       <c r="D270" s="5"/>
       <c r="E270" s="9"/>
       <c r="F270" s="6">
@@ -4345,7 +4345,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="5"/>
-      <c r="C271" s="13"/>
+      <c r="C271" s="11"/>
       <c r="D271" s="5"/>
       <c r="E271" s="9"/>
       <c r="F271" s="6">
@@ -4359,7 +4359,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="5"/>
-      <c r="C272" s="13"/>
+      <c r="C272" s="11"/>
       <c r="D272" s="5"/>
       <c r="E272" s="9"/>
       <c r="F272" s="6">
@@ -4373,7 +4373,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="5"/>
-      <c r="C273" s="13"/>
+      <c r="C273" s="11"/>
       <c r="D273" s="5"/>
       <c r="E273" s="9"/>
       <c r="F273" s="6">
@@ -4387,7 +4387,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="5"/>
-      <c r="C274" s="13"/>
+      <c r="C274" s="11"/>
       <c r="D274" s="5"/>
       <c r="E274" s="9"/>
       <c r="F274" s="6">
@@ -4401,7 +4401,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="5"/>
-      <c r="C275" s="13"/>
+      <c r="C275" s="11"/>
       <c r="D275" s="5"/>
       <c r="E275" s="9"/>
       <c r="F275" s="6">
@@ -4415,7 +4415,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="5"/>
-      <c r="C276" s="13"/>
+      <c r="C276" s="11"/>
       <c r="D276" s="5"/>
       <c r="E276" s="9"/>
       <c r="F276" s="6">
@@ -4429,7 +4429,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="5"/>
-      <c r="C277" s="13"/>
+      <c r="C277" s="11"/>
       <c r="D277" s="5"/>
       <c r="E277" s="9"/>
       <c r="F277" s="6">
@@ -4443,7 +4443,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="5"/>
-      <c r="C278" s="13"/>
+      <c r="C278" s="11"/>
       <c r="D278" s="5"/>
       <c r="E278" s="9"/>
       <c r="F278" s="6">
@@ -4457,7 +4457,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="5"/>
-      <c r="C279" s="13"/>
+      <c r="C279" s="11"/>
       <c r="D279" s="5"/>
       <c r="E279" s="9"/>
       <c r="F279" s="6">
@@ -4471,7 +4471,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="5"/>
-      <c r="C280" s="13"/>
+      <c r="C280" s="11"/>
       <c r="D280" s="5"/>
       <c r="E280" s="9"/>
       <c r="F280" s="6">
@@ -4485,7 +4485,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="5"/>
-      <c r="C281" s="13"/>
+      <c r="C281" s="11"/>
       <c r="D281" s="5"/>
       <c r="E281" s="9"/>
       <c r="F281" s="6">
@@ -4499,7 +4499,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="5"/>
-      <c r="C282" s="13"/>
+      <c r="C282" s="11"/>
       <c r="D282" s="5"/>
       <c r="E282" s="9"/>
       <c r="F282" s="6">
@@ -4513,7 +4513,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="5"/>
-      <c r="C283" s="13"/>
+      <c r="C283" s="11"/>
       <c r="D283" s="5"/>
       <c r="E283" s="9"/>
       <c r="F283" s="6">
@@ -4527,7 +4527,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="5"/>
-      <c r="C284" s="13"/>
+      <c r="C284" s="11"/>
       <c r="D284" s="5"/>
       <c r="E284" s="9"/>
       <c r="F284" s="6">
@@ -4541,7 +4541,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="5"/>
-      <c r="C285" s="13"/>
+      <c r="C285" s="11"/>
       <c r="D285" s="5"/>
       <c r="E285" s="9"/>
       <c r="F285" s="6">
@@ -4555,7 +4555,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="5"/>
-      <c r="C286" s="13"/>
+      <c r="C286" s="11"/>
       <c r="D286" s="5"/>
       <c r="E286" s="9"/>
       <c r="F286" s="6">
@@ -4569,7 +4569,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="5"/>
-      <c r="C287" s="13"/>
+      <c r="C287" s="11"/>
       <c r="D287" s="5"/>
       <c r="E287" s="9"/>
       <c r="F287" s="6">
@@ -4583,7 +4583,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="5"/>
-      <c r="C288" s="13"/>
+      <c r="C288" s="11"/>
       <c r="D288" s="5"/>
       <c r="E288" s="9"/>
       <c r="F288" s="6">
@@ -4597,7 +4597,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="5"/>
-      <c r="C289" s="13"/>
+      <c r="C289" s="11"/>
       <c r="D289" s="5"/>
       <c r="E289" s="9"/>
       <c r="F289" s="6">
@@ -4611,7 +4611,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="5"/>
-      <c r="C290" s="13"/>
+      <c r="C290" s="11"/>
       <c r="D290" s="5"/>
       <c r="E290" s="9"/>
       <c r="F290" s="6">
@@ -4625,7 +4625,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="5"/>
-      <c r="C291" s="13"/>
+      <c r="C291" s="11"/>
       <c r="D291" s="5"/>
       <c r="E291" s="9"/>
       <c r="F291" s="6">
@@ -4639,7 +4639,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="5"/>
-      <c r="C292" s="13"/>
+      <c r="C292" s="11"/>
       <c r="D292" s="5"/>
       <c r="E292" s="9"/>
       <c r="F292" s="6">
@@ -4653,7 +4653,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="5"/>
-      <c r="C293" s="13"/>
+      <c r="C293" s="11"/>
       <c r="D293" s="5"/>
       <c r="E293" s="9"/>
       <c r="F293" s="6">
@@ -4667,7 +4667,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="5"/>
-      <c r="C294" s="13"/>
+      <c r="C294" s="11"/>
       <c r="D294" s="5"/>
       <c r="E294" s="9"/>
       <c r="F294" s="6">
@@ -4681,7 +4681,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="5"/>
-      <c r="C295" s="13"/>
+      <c r="C295" s="11"/>
       <c r="D295" s="5"/>
       <c r="E295" s="9"/>
       <c r="F295" s="6">
@@ -4695,7 +4695,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="5"/>
-      <c r="C296" s="13"/>
+      <c r="C296" s="11"/>
       <c r="D296" s="5"/>
       <c r="E296" s="9"/>
       <c r="F296" s="6">
@@ -4709,7 +4709,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="5"/>
-      <c r="C297" s="13"/>
+      <c r="C297" s="11"/>
       <c r="D297" s="5"/>
       <c r="E297" s="9"/>
       <c r="F297" s="6">
@@ -4723,7 +4723,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="5"/>
-      <c r="C298" s="13"/>
+      <c r="C298" s="11"/>
       <c r="D298" s="5"/>
       <c r="E298" s="9"/>
       <c r="F298" s="6">
@@ -4737,7 +4737,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="5"/>
-      <c r="C299" s="13"/>
+      <c r="C299" s="11"/>
       <c r="D299" s="5"/>
       <c r="E299" s="9"/>
       <c r="F299" s="6">
@@ -4751,7 +4751,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="5"/>
-      <c r="C300" s="13"/>
+      <c r="C300" s="11"/>
       <c r="D300" s="5"/>
       <c r="E300" s="9"/>
       <c r="F300" s="6">
@@ -4765,7 +4765,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="5"/>
-      <c r="C301" s="13"/>
+      <c r="C301" s="11"/>
       <c r="D301" s="5"/>
       <c r="E301" s="9"/>
       <c r="F301" s="6">
@@ -4779,7 +4779,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="5"/>
-      <c r="C302" s="13"/>
+      <c r="C302" s="11"/>
       <c r="D302" s="5"/>
       <c r="E302" s="9"/>
       <c r="F302" s="6">
@@ -4793,7 +4793,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="5"/>
-      <c r="C303" s="13"/>
+      <c r="C303" s="11"/>
       <c r="D303" s="5"/>
       <c r="E303" s="9"/>
       <c r="F303" s="6">
@@ -4807,7 +4807,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="5"/>
-      <c r="C304" s="13"/>
+      <c r="C304" s="11"/>
       <c r="D304" s="5"/>
       <c r="E304" s="9"/>
       <c r="F304" s="6">
@@ -4821,7 +4821,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="5"/>
-      <c r="C305" s="13"/>
+      <c r="C305" s="11"/>
       <c r="D305" s="5"/>
       <c r="E305" s="9"/>
       <c r="F305" s="6">
@@ -4835,7 +4835,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="5"/>
-      <c r="C306" s="13"/>
+      <c r="C306" s="11"/>
       <c r="D306" s="5"/>
       <c r="E306" s="9"/>
       <c r="F306" s="6">
@@ -4849,7 +4849,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="5"/>
-      <c r="C307" s="13"/>
+      <c r="C307" s="11"/>
       <c r="D307" s="5"/>
       <c r="E307" s="9"/>
       <c r="F307" s="6">
@@ -4863,7 +4863,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="5"/>
-      <c r="C308" s="13"/>
+      <c r="C308" s="11"/>
       <c r="D308" s="5"/>
       <c r="E308" s="9"/>
       <c r="F308" s="6">
@@ -4877,7 +4877,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="5"/>
-      <c r="C309" s="13"/>
+      <c r="C309" s="11"/>
       <c r="D309" s="5"/>
       <c r="E309" s="9"/>
       <c r="F309" s="6">
@@ -4891,7 +4891,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="5"/>
-      <c r="C310" s="13"/>
+      <c r="C310" s="11"/>
       <c r="D310" s="5"/>
       <c r="E310" s="9"/>
       <c r="F310" s="6">
@@ -4905,7 +4905,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="5"/>
-      <c r="C311" s="13"/>
+      <c r="C311" s="11"/>
       <c r="D311" s="5"/>
       <c r="E311" s="9"/>
       <c r="F311" s="6">
@@ -4919,7 +4919,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="5"/>
-      <c r="C312" s="13"/>
+      <c r="C312" s="11"/>
       <c r="D312" s="5"/>
       <c r="E312" s="9"/>
       <c r="F312" s="6">
@@ -4933,7 +4933,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="5"/>
-      <c r="C313" s="13"/>
+      <c r="C313" s="11"/>
       <c r="D313" s="5"/>
       <c r="E313" s="9"/>
       <c r="F313" s="6">
@@ -4947,7 +4947,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="5"/>
-      <c r="C314" s="13"/>
+      <c r="C314" s="11"/>
       <c r="D314" s="5"/>
       <c r="E314" s="9"/>
       <c r="F314" s="6">
@@ -4961,7 +4961,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="5"/>
-      <c r="C315" s="13"/>
+      <c r="C315" s="11"/>
       <c r="D315" s="5"/>
       <c r="E315" s="9"/>
       <c r="F315" s="6">
@@ -4975,7 +4975,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="5"/>
-      <c r="C316" s="13"/>
+      <c r="C316" s="11"/>
       <c r="D316" s="5"/>
       <c r="E316" s="9"/>
       <c r="F316" s="6">
@@ -4989,7 +4989,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="5"/>
-      <c r="C317" s="13"/>
+      <c r="C317" s="11"/>
       <c r="D317" s="5"/>
       <c r="E317" s="9"/>
       <c r="F317" s="6">
@@ -5003,7 +5003,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="5"/>
-      <c r="C318" s="13"/>
+      <c r="C318" s="11"/>
       <c r="D318" s="5"/>
       <c r="E318" s="9"/>
       <c r="F318" s="6">
@@ -5017,7 +5017,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="5"/>
-      <c r="C319" s="13"/>
+      <c r="C319" s="11"/>
       <c r="D319" s="5"/>
       <c r="E319" s="9"/>
       <c r="F319" s="6">
@@ -5031,7 +5031,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="5"/>
-      <c r="C320" s="13"/>
+      <c r="C320" s="11"/>
       <c r="D320" s="5"/>
       <c r="E320" s="9"/>
       <c r="F320" s="6">
@@ -5045,7 +5045,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="5"/>
-      <c r="C321" s="13"/>
+      <c r="C321" s="11"/>
       <c r="D321" s="5"/>
       <c r="E321" s="9"/>
       <c r="F321" s="6">
@@ -5059,7 +5059,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="5"/>
-      <c r="C322" s="13"/>
+      <c r="C322" s="11"/>
       <c r="D322" s="5"/>
       <c r="E322" s="9"/>
       <c r="F322" s="6">
@@ -5073,7 +5073,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="5"/>
-      <c r="C323" s="13"/>
+      <c r="C323" s="11"/>
       <c r="D323" s="5"/>
       <c r="E323" s="9"/>
       <c r="F323" s="6">
@@ -5087,7 +5087,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="5"/>
-      <c r="C324" s="13"/>
+      <c r="C324" s="11"/>
       <c r="D324" s="5"/>
       <c r="E324" s="9"/>
       <c r="F324" s="6">
@@ -5101,7 +5101,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="5"/>
-      <c r="C325" s="13"/>
+      <c r="C325" s="11"/>
       <c r="D325" s="5"/>
       <c r="E325" s="9"/>
       <c r="F325" s="6">
@@ -5115,7 +5115,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="5"/>
-      <c r="C326" s="13"/>
+      <c r="C326" s="11"/>
       <c r="D326" s="5"/>
       <c r="E326" s="9"/>
       <c r="F326" s="6">
@@ -5129,7 +5129,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="5"/>
-      <c r="C327" s="13"/>
+      <c r="C327" s="11"/>
       <c r="D327" s="5"/>
       <c r="E327" s="9"/>
       <c r="F327" s="6">
@@ -5143,7 +5143,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="5"/>
-      <c r="C328" s="13"/>
+      <c r="C328" s="11"/>
       <c r="D328" s="5"/>
       <c r="E328" s="9"/>
       <c r="F328" s="6">
@@ -5157,7 +5157,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="5"/>
-      <c r="C329" s="13"/>
+      <c r="C329" s="11"/>
       <c r="D329" s="5"/>
       <c r="E329" s="9"/>
       <c r="F329" s="6">
@@ -5171,7 +5171,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="5"/>
-      <c r="C330" s="13"/>
+      <c r="C330" s="11"/>
       <c r="D330" s="5"/>
       <c r="E330" s="9"/>
       <c r="F330" s="6">
@@ -5185,7 +5185,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="5"/>
-      <c r="C331" s="13"/>
+      <c r="C331" s="11"/>
       <c r="D331" s="5"/>
       <c r="E331" s="9"/>
       <c r="F331" s="6">
@@ -5199,7 +5199,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="5"/>
-      <c r="C332" s="13"/>
+      <c r="C332" s="11"/>
       <c r="D332" s="5"/>
       <c r="E332" s="9"/>
       <c r="F332" s="6">
@@ -5213,7 +5213,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="5"/>
-      <c r="C333" s="13"/>
+      <c r="C333" s="11"/>
       <c r="D333" s="5"/>
       <c r="E333" s="9"/>
       <c r="F333" s="6">
@@ -5227,7 +5227,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="5"/>
-      <c r="C334" s="13"/>
+      <c r="C334" s="11"/>
       <c r="D334" s="5"/>
       <c r="E334" s="9"/>
       <c r="F334" s="6">
@@ -5241,7 +5241,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="5"/>
-      <c r="C335" s="13"/>
+      <c r="C335" s="11"/>
       <c r="D335" s="5"/>
       <c r="E335" s="9"/>
       <c r="F335" s="6">
@@ -5255,7 +5255,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="5"/>
-      <c r="C336" s="13"/>
+      <c r="C336" s="11"/>
       <c r="D336" s="5"/>
       <c r="E336" s="9"/>
       <c r="F336" s="6">
@@ -5269,7 +5269,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="5"/>
-      <c r="C337" s="13"/>
+      <c r="C337" s="11"/>
       <c r="D337" s="5"/>
       <c r="E337" s="9"/>
       <c r="F337" s="6">
@@ -5283,7 +5283,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="5"/>
-      <c r="C338" s="13"/>
+      <c r="C338" s="11"/>
       <c r="D338" s="5"/>
       <c r="E338" s="9"/>
       <c r="F338" s="6">
@@ -5297,7 +5297,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="5"/>
-      <c r="C339" s="13"/>
+      <c r="C339" s="11"/>
       <c r="D339" s="5"/>
       <c r="E339" s="9"/>
       <c r="F339" s="6">
@@ -5311,7 +5311,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="5"/>
-      <c r="C340" s="13"/>
+      <c r="C340" s="11"/>
       <c r="D340" s="5"/>
       <c r="E340" s="9"/>
       <c r="F340" s="6">
@@ -5325,7 +5325,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="5"/>
-      <c r="C341" s="13"/>
+      <c r="C341" s="11"/>
       <c r="D341" s="5"/>
       <c r="E341" s="9"/>
       <c r="F341" s="6">
@@ -5339,7 +5339,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="5"/>
-      <c r="C342" s="13"/>
+      <c r="C342" s="11"/>
       <c r="D342" s="5"/>
       <c r="E342" s="9"/>
       <c r="F342" s="6">
@@ -5353,7 +5353,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="5"/>
-      <c r="C343" s="13"/>
+      <c r="C343" s="11"/>
       <c r="D343" s="5"/>
       <c r="E343" s="9"/>
       <c r="F343" s="6">
@@ -5367,7 +5367,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="5"/>
-      <c r="C344" s="13"/>
+      <c r="C344" s="11"/>
       <c r="D344" s="5"/>
       <c r="E344" s="9"/>
       <c r="F344" s="6">
@@ -5381,7 +5381,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="5"/>
-      <c r="C345" s="13"/>
+      <c r="C345" s="11"/>
       <c r="D345" s="5"/>
       <c r="E345" s="9"/>
       <c r="F345" s="6">
@@ -5395,7 +5395,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="5"/>
-      <c r="C346" s="13"/>
+      <c r="C346" s="11"/>
       <c r="D346" s="5"/>
       <c r="E346" s="9"/>
       <c r="F346" s="6">
@@ -5409,7 +5409,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="5"/>
-      <c r="C347" s="13"/>
+      <c r="C347" s="11"/>
       <c r="D347" s="5"/>
       <c r="E347" s="9"/>
       <c r="F347" s="6">
@@ -5423,7 +5423,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="5"/>
-      <c r="C348" s="13"/>
+      <c r="C348" s="11"/>
       <c r="D348" s="5"/>
       <c r="E348" s="9"/>
       <c r="F348" s="6">
@@ -5437,7 +5437,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="5"/>
-      <c r="C349" s="13"/>
+      <c r="C349" s="11"/>
       <c r="D349" s="5"/>
       <c r="E349" s="9"/>
       <c r="F349" s="6">
@@ -5451,7 +5451,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="5"/>
-      <c r="C350" s="13"/>
+      <c r="C350" s="11"/>
       <c r="D350" s="5"/>
       <c r="E350" s="9"/>
       <c r="F350" s="6">
@@ -5465,7 +5465,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="5"/>
-      <c r="C351" s="13"/>
+      <c r="C351" s="11"/>
       <c r="D351" s="5"/>
       <c r="E351" s="9"/>
       <c r="F351" s="6">
@@ -5479,7 +5479,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="5"/>
-      <c r="C352" s="13"/>
+      <c r="C352" s="11"/>
       <c r="D352" s="5"/>
       <c r="E352" s="9"/>
       <c r="F352" s="6">
@@ -5493,7 +5493,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="5"/>
-      <c r="C353" s="13"/>
+      <c r="C353" s="11"/>
       <c r="D353" s="5"/>
       <c r="E353" s="9"/>
       <c r="F353" s="6">
@@ -5507,7 +5507,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="5"/>
-      <c r="C354" s="13"/>
+      <c r="C354" s="11"/>
       <c r="D354" s="5"/>
       <c r="E354" s="9"/>
       <c r="F354" s="6">
@@ -5521,7 +5521,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="5"/>
-      <c r="C355" s="13"/>
+      <c r="C355" s="11"/>
       <c r="D355" s="5"/>
       <c r="E355" s="9"/>
       <c r="F355" s="6">
@@ -5535,7 +5535,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="5"/>
-      <c r="C356" s="13"/>
+      <c r="C356" s="11"/>
       <c r="D356" s="5"/>
       <c r="E356" s="9"/>
       <c r="F356" s="6">
@@ -5549,7 +5549,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="5"/>
-      <c r="C357" s="13"/>
+      <c r="C357" s="11"/>
       <c r="D357" s="5"/>
       <c r="E357" s="9"/>
       <c r="F357" s="6">
@@ -5563,7 +5563,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="5"/>
-      <c r="C358" s="13"/>
+      <c r="C358" s="11"/>
       <c r="D358" s="5"/>
       <c r="E358" s="9"/>
       <c r="F358" s="6">
@@ -5577,7 +5577,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="5"/>
-      <c r="C359" s="13"/>
+      <c r="C359" s="11"/>
       <c r="D359" s="5"/>
       <c r="E359" s="9"/>
       <c r="F359" s="6">
@@ -5591,7 +5591,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="5"/>
-      <c r="C360" s="13"/>
+      <c r="C360" s="11"/>
       <c r="D360" s="5"/>
       <c r="E360" s="9"/>
       <c r="F360" s="6">
@@ -5605,7 +5605,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="5"/>
-      <c r="C361" s="13"/>
+      <c r="C361" s="11"/>
       <c r="D361" s="5"/>
       <c r="E361" s="9"/>
       <c r="F361" s="6">
@@ -5619,7 +5619,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="5"/>
-      <c r="C362" s="13"/>
+      <c r="C362" s="11"/>
       <c r="D362" s="5"/>
       <c r="E362" s="9"/>
       <c r="F362" s="6">
@@ -5633,7 +5633,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="5"/>
-      <c r="C363" s="13"/>
+      <c r="C363" s="11"/>
       <c r="D363" s="5"/>
       <c r="E363" s="9"/>
       <c r="F363" s="6">
@@ -5647,7 +5647,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="5"/>
-      <c r="C364" s="13"/>
+      <c r="C364" s="11"/>
       <c r="D364" s="5"/>
       <c r="E364" s="9"/>
       <c r="F364" s="6">
@@ -5661,7 +5661,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="5"/>
-      <c r="C365" s="13"/>
+      <c r="C365" s="11"/>
       <c r="D365" s="5"/>
       <c r="E365" s="9"/>
       <c r="F365" s="6">
@@ -5675,7 +5675,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="5"/>
-      <c r="C366" s="13"/>
+      <c r="C366" s="11"/>
       <c r="D366" s="5"/>
       <c r="E366" s="9"/>
       <c r="F366" s="6">
@@ -5689,7 +5689,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="5"/>
-      <c r="C367" s="13"/>
+      <c r="C367" s="11"/>
       <c r="D367" s="5"/>
       <c r="E367" s="9"/>
       <c r="F367" s="6">
@@ -5703,7 +5703,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="5"/>
-      <c r="C368" s="13"/>
+      <c r="C368" s="11"/>
       <c r="D368" s="5"/>
       <c r="E368" s="9"/>
       <c r="F368" s="6">
@@ -5717,7 +5717,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="5"/>
-      <c r="C369" s="13"/>
+      <c r="C369" s="11"/>
       <c r="D369" s="5"/>
       <c r="E369" s="9"/>
       <c r="F369" s="6">
@@ -5731,7 +5731,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="5"/>
-      <c r="C370" s="13"/>
+      <c r="C370" s="11"/>
       <c r="D370" s="5"/>
       <c r="E370" s="9"/>
       <c r="F370" s="6">
@@ -5745,7 +5745,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="5"/>
-      <c r="C371" s="13"/>
+      <c r="C371" s="11"/>
       <c r="D371" s="5"/>
       <c r="E371" s="9"/>
       <c r="F371" s="6">
@@ -5759,7 +5759,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="5"/>
-      <c r="C372" s="13"/>
+      <c r="C372" s="11"/>
       <c r="D372" s="5"/>
       <c r="E372" s="9"/>
       <c r="F372" s="6">
@@ -5773,7 +5773,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="5"/>
-      <c r="C373" s="13"/>
+      <c r="C373" s="11"/>
       <c r="D373" s="5"/>
       <c r="E373" s="9"/>
       <c r="F373" s="6">
@@ -5787,7 +5787,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="5"/>
-      <c r="C374" s="13"/>
+      <c r="C374" s="11"/>
       <c r="D374" s="5"/>
       <c r="E374" s="9"/>
       <c r="F374" s="6">
@@ -5801,7 +5801,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="5"/>
-      <c r="C375" s="13"/>
+      <c r="C375" s="11"/>
       <c r="D375" s="5"/>
       <c r="E375" s="9"/>
       <c r="F375" s="6">
@@ -5815,7 +5815,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="5"/>
-      <c r="C376" s="13"/>
+      <c r="C376" s="11"/>
       <c r="D376" s="5"/>
       <c r="E376" s="9"/>
       <c r="F376" s="6">
@@ -5829,7 +5829,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="5"/>
-      <c r="C377" s="13"/>
+      <c r="C377" s="11"/>
       <c r="D377" s="5"/>
       <c r="E377" s="9"/>
       <c r="F377" s="6">
@@ -5843,7 +5843,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="5"/>
-      <c r="C378" s="13"/>
+      <c r="C378" s="11"/>
       <c r="D378" s="5"/>
       <c r="E378" s="9"/>
       <c r="F378" s="6">
@@ -5857,7 +5857,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="5"/>
-      <c r="C379" s="13"/>
+      <c r="C379" s="11"/>
       <c r="D379" s="5"/>
       <c r="E379" s="9"/>
       <c r="F379" s="6">
@@ -5871,7 +5871,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="5"/>
-      <c r="C380" s="13"/>
+      <c r="C380" s="11"/>
       <c r="D380" s="5"/>
       <c r="E380" s="9"/>
       <c r="F380" s="6">
@@ -5885,7 +5885,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="5"/>
-      <c r="C381" s="13"/>
+      <c r="C381" s="11"/>
       <c r="D381" s="5"/>
       <c r="E381" s="9"/>
       <c r="F381" s="6">
@@ -5899,7 +5899,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="5"/>
-      <c r="C382" s="13"/>
+      <c r="C382" s="11"/>
       <c r="D382" s="5"/>
       <c r="E382" s="9"/>
       <c r="F382" s="6">
@@ -5913,7 +5913,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="5"/>
-      <c r="C383" s="13"/>
+      <c r="C383" s="11"/>
       <c r="D383" s="5"/>
       <c r="E383" s="9"/>
       <c r="F383" s="6">
@@ -5927,7 +5927,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="5"/>
-      <c r="C384" s="13"/>
+      <c r="C384" s="11"/>
       <c r="D384" s="5"/>
       <c r="E384" s="9"/>
       <c r="F384" s="6">
@@ -5941,7 +5941,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="5"/>
-      <c r="C385" s="13"/>
+      <c r="C385" s="11"/>
       <c r="D385" s="5"/>
       <c r="E385" s="9"/>
       <c r="F385" s="6">
@@ -5955,7 +5955,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="5"/>
-      <c r="C386" s="13"/>
+      <c r="C386" s="11"/>
       <c r="D386" s="5"/>
       <c r="E386" s="9"/>
       <c r="F386" s="6">
@@ -5969,7 +5969,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="5"/>
-      <c r="C387" s="13"/>
+      <c r="C387" s="11"/>
       <c r="D387" s="5"/>
       <c r="E387" s="9"/>
       <c r="F387" s="6">
@@ -5983,7 +5983,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="5"/>
-      <c r="C388" s="13"/>
+      <c r="C388" s="11"/>
       <c r="D388" s="5"/>
       <c r="E388" s="9"/>
       <c r="F388" s="6">
@@ -5997,7 +5997,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="5"/>
-      <c r="C389" s="13"/>
+      <c r="C389" s="11"/>
       <c r="D389" s="5"/>
       <c r="E389" s="9"/>
       <c r="F389" s="6">
@@ -6011,7 +6011,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="5"/>
-      <c r="C390" s="13"/>
+      <c r="C390" s="11"/>
       <c r="D390" s="5"/>
       <c r="E390" s="9"/>
       <c r="F390" s="6">
@@ -6025,7 +6025,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="5"/>
-      <c r="C391" s="13"/>
+      <c r="C391" s="11"/>
       <c r="D391" s="5"/>
       <c r="E391" s="9"/>
       <c r="F391" s="6">
@@ -6039,7 +6039,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="5"/>
-      <c r="C392" s="13"/>
+      <c r="C392" s="11"/>
       <c r="D392" s="5"/>
       <c r="E392" s="9"/>
       <c r="F392" s="6">
@@ -6053,7 +6053,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="5"/>
-      <c r="C393" s="13"/>
+      <c r="C393" s="11"/>
       <c r="D393" s="5"/>
       <c r="E393" s="9"/>
       <c r="F393" s="6">
@@ -6067,7 +6067,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="5"/>
-      <c r="C394" s="13"/>
+      <c r="C394" s="11"/>
       <c r="D394" s="5"/>
       <c r="E394" s="9"/>
       <c r="F394" s="6">
@@ -6081,7 +6081,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="5"/>
-      <c r="C395" s="13"/>
+      <c r="C395" s="11"/>
       <c r="D395" s="5"/>
       <c r="E395" s="9"/>
       <c r="F395" s="6">
@@ -6095,7 +6095,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="5"/>
-      <c r="C396" s="13"/>
+      <c r="C396" s="11"/>
       <c r="D396" s="5"/>
       <c r="E396" s="9"/>
       <c r="F396" s="6">
@@ -6109,7 +6109,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="5"/>
-      <c r="C397" s="13"/>
+      <c r="C397" s="11"/>
       <c r="D397" s="5"/>
       <c r="E397" s="9"/>
       <c r="F397" s="6">
@@ -6123,7 +6123,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="5"/>
-      <c r="C398" s="13"/>
+      <c r="C398" s="11"/>
       <c r="D398" s="5"/>
       <c r="E398" s="9"/>
       <c r="F398" s="6">
@@ -6137,7 +6137,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="5"/>
-      <c r="C399" s="13"/>
+      <c r="C399" s="11"/>
       <c r="D399" s="5"/>
       <c r="E399" s="9"/>
       <c r="F399" s="6">
@@ -6151,7 +6151,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="5"/>
-      <c r="C400" s="13"/>
+      <c r="C400" s="11"/>
       <c r="D400" s="5"/>
       <c r="E400" s="9"/>
       <c r="F400" s="6">
@@ -6165,7 +6165,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="5"/>
-      <c r="C401" s="13"/>
+      <c r="C401" s="11"/>
       <c r="D401" s="5"/>
       <c r="E401" s="9"/>
       <c r="F401" s="6">
@@ -6179,7 +6179,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="5"/>
-      <c r="C402" s="13"/>
+      <c r="C402" s="11"/>
       <c r="D402" s="5"/>
       <c r="E402" s="9"/>
       <c r="F402" s="6">
@@ -6193,7 +6193,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="5"/>
-      <c r="C403" s="13"/>
+      <c r="C403" s="11"/>
       <c r="D403" s="5"/>
       <c r="E403" s="9"/>
       <c r="F403" s="6">
@@ -6207,7 +6207,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="5"/>
-      <c r="C404" s="13"/>
+      <c r="C404" s="11"/>
       <c r="D404" s="5"/>
       <c r="E404" s="9"/>
       <c r="F404" s="6">
@@ -6221,7 +6221,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="5"/>
-      <c r="C405" s="13"/>
+      <c r="C405" s="11"/>
       <c r="D405" s="5"/>
       <c r="E405" s="9"/>
       <c r="F405" s="6">
@@ -6231,12 +6231,12 @@
       <c r="G405" s="8"/>
     </row>
     <row r="406" spans="1:7" ht="14.25">
-      <c r="A406" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B406" s="10"/>
-      <c r="C406" s="10"/>
-      <c r="D406" s="11"/>
+      <c r="A406" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B406" s="13"/>
+      <c r="C406" s="13"/>
+      <c r="D406" s="14"/>
       <c r="E406" s="7">
         <f>SUM(E2:E405)</f>
         <v>0</v>
